--- a/testdata/type_nil.xlsx
+++ b/testdata/type_nil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itcomusic/samoletplus/sample-newbuilding/excelx/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itcomusic/projects/excelstruct/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E047F82-6EEA-1F44-937A-CC474D4E94BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3553731B-103A-5045-8649-DF4D0306B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51180" windowHeight="15080" xr2:uid="{31FD3E1F-C8F5-8843-9A51-FAB55DFCE714}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>pint</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>pbool</t>
   </si>
 </sst>
 </file>
@@ -490,18 +496,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BB755-7058-154A-8EBA-8D6A357B8C12}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -542,52 +548,58 @@
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,8 +617,8 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -619,7 +631,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
